--- a/xlsx/医疗卫生_intext.xlsx
+++ b/xlsx/医疗卫生_intext.xlsx
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E8%B7%9D%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>遠距醫療</t>
+    <t>远距医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A5%E6%95%91</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%8A%E6%80%A5%E6%95%91%E5%8A%A9%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>緊急救助電話</t>
+    <t>紧急救助电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
